--- a/votes/data/national.xlsx
+++ b/votes/data/national.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">נ</t>
+          <t>נ</t>
         </is>
       </c>
       <c r="C13">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ףנ</t>
+          <t>ףנ</t>
         </is>
       </c>
       <c r="C36">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ןנ</t>
+          <t>ןנ</t>
         </is>
       </c>
       <c r="C37">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">זנ</t>
+          <t>זנ</t>
         </is>
       </c>
       <c r="C43">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">נ</t>
+          <t>נ</t>
         </is>
       </c>
       <c r="C64">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ינ</t>
+          <t>ינ</t>
         </is>
       </c>
       <c r="C69">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">נ</t>
+          <t>נ</t>
         </is>
       </c>
       <c r="C87">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">ינ</t>
+          <t>ינ</t>
         </is>
       </c>
       <c r="C92">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">רנ</t>
+          <t>רנ</t>
         </is>
       </c>
       <c r="C124">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">נ</t>
+          <t>נ</t>
         </is>
       </c>
       <c r="C130">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ינ</t>
+          <t>ינ</t>
         </is>
       </c>
       <c r="C136">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">קנ</t>
+          <t>קנ</t>
         </is>
       </c>
       <c r="C167">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">ינ</t>
+          <t>ינ</t>
         </is>
       </c>
       <c r="C183">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve">זנ</t>
+          <t>זנ</t>
         </is>
       </c>
       <c r="C185">
